--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -480,6 +480,222 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[('Realistic', 4), ('Investigative', 4)]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ENFJ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Вы предпочитаете практическую работу, связанную с техникой или реальными задачами. Тренер: Харизматичные лидеры, вдохновляющие и мотивирующие.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[('Realistic', 5), ('Investigative', 5)]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ISTJ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Вы предпочитаете практическую работу, связанную с техникой или реальными задачами. Администратор: Практичные и надёжные люди, на которых можно положиться.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[('Investigative', 5), ('Social', 5)]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ENFP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Вы thrive в аналитических и исследовательских ролях, таких как наука, IT или аналитика. Борец: Энтузиасты, общительные и творческие личности с оптимистичным взглядом на жизнь.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[('Realistic', 5), ('Investigative', 5)]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>INFP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Вы предпочитаете практическую работу, связанную с техникой или реальными задачами. Посредник: Поэтичные, добрые и альтруистичные личности, готовые помочь.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[('Investigative', 5), ('Enterprising', 5)]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ISFP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Вы thrive в аналитических и исследовательских ролях, таких как наука, IT или аналитика. Артист: Гибкие и очаровательные личности, всегда ищущие новое.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[('Investigative', 5), ('Social', 5)]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ESTJ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Вы thrive в аналитических и исследовательских ролях, таких как наука, IT или аналитика. Менеджер: Организаторы, которые превосходно управляют процессами.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[('Investigative', 5), ('Conventional', 5)]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENFP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Вы thrive в аналитических и исследовательских ролях, таких как наука, IT или аналитика. Борец: Энтузиасты, общительные и творческие личности с оптимистичным взглядом на жизнь.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[('Social', 5), ('Realistic', 4)]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>INFJ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Вы хорошо справляетесь с помощью другим людям. Подходящие профессии: учитель, консультант. Активист: Идеалисты, вдохновляющие и готовые бороться за свои принципы.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kross\OneDrive\Desktop\Учёба\Дипломная\Career guidance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF6E1C-0DC1-4F95-88C9-FF760860252E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="3120" windowWidth="28065" windowHeight="17745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9135" yWindow="3120" windowWidth="28065" windowHeight="17745" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Почта</t>
-  </si>
-  <si>
-    <t>Реалистичный</t>
-  </si>
-  <si>
-    <t>Исследовательсикй</t>
-  </si>
-  <si>
-    <t>Артистический</t>
-  </si>
-  <si>
-    <t>Социальный</t>
-  </si>
-  <si>
-    <t>Предприимчивый</t>
-  </si>
-  <si>
-    <t>Конвенциональный</t>
-  </si>
-  <si>
-    <t>MBTI</t>
-  </si>
-  <si>
-    <t>Профессии</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,62 +407,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col width="7.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="5.5703125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="62.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="9.85546875" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Почта</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Реалистичный</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Исследовательсикй</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Артистический</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Социальный</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Предприимчивый</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Конвенциональный</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>MBTI</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Профессии</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>INFP</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Писатель, Психолог, Социальный работник</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>INFP</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Писатель, Психолог, Социальный работник</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ENFJ</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>HR-менеджер, Тренер по развитию, Руководитель команды</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>INFP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Писатель, Психолог, Социальный работник</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ESFJ</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Врач, Социальный работник, Консультант по работе с клиентами</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ESTP</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Предприниматель, Торговый представитель, Пилот</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Эльдар</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>kanamgo@mail.ru</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>INFP</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Писатель, Психолог, Социальный работник</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>